--- a/atomica/library/hypertension_dyn_databook.xlsx
+++ b/atomica/library/hypertension_dyn_databook.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/databooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7CFE6A29-E709-9C4B-AD0C-88D430358AA9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE5FB6-B54B-49D1-828D-04CDD41C597E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="460" windowWidth="19140" windowHeight="14420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="465" windowWidth="19140" windowHeight="14415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -30,42 +37,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -73,42 +52,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -116,42 +67,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -159,42 +82,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -202,42 +97,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -245,42 +112,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -288,42 +127,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -331,42 +142,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -374,42 +157,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -417,42 +172,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -460,42 +187,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -503,42 +202,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -546,42 +217,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -589,42 +232,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -632,42 +247,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -675,42 +262,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -718,42 +277,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -761,42 +292,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -804,42 +307,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -847,42 +322,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">All values from </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <color theme="1"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t xml:space="preserve">Price et al. Lancet Diabetes Endocrinol 2018
-</t>
+          <t>Robyn Stuart:
+All values from Price et al. Lancet Diabetes Endocrinol 2018</t>
         </r>
       </text>
     </comment>
@@ -890,32 +337,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -923,32 +352,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -956,32 +367,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -989,32 +382,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1022,32 +397,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1055,32 +412,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1088,32 +427,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1121,32 +442,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1154,32 +457,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1187,32 +472,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1220,32 +487,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1253,32 +502,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1286,32 +517,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1319,32 +532,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1352,32 +547,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1385,32 +562,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1418,32 +577,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1451,32 +592,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1484,32 +607,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1517,32 +622,14 @@
       <text>
         <r>
           <rPr>
-            <b/>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
+            <scheme val="minor"/>
           </rPr>
-          <t>Robyn Stuart:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Placeholder value</t>
+          <t>Robyn Stuart:
+Placeholder value</t>
         </r>
       </text>
     </comment>
@@ -1557,6 +644,30 @@
   </si>
   <si>
     <t>Full Name</t>
+  </si>
+  <si>
+    <t>m_rural</t>
+  </si>
+  <si>
+    <t>Rural males</t>
+  </si>
+  <si>
+    <t>f_rural</t>
+  </si>
+  <si>
+    <t>Rural females</t>
+  </si>
+  <si>
+    <t>m_urban</t>
+  </si>
+  <si>
+    <t>Urban males</t>
+  </si>
+  <si>
+    <t>f_urban</t>
+  </si>
+  <si>
+    <t>Urban females</t>
   </si>
   <si>
     <t>Population size</t>
@@ -1592,6 +703,9 @@
     <t>Annual number of births</t>
   </si>
   <si>
+    <t>Estimated number of new cases annually</t>
+  </si>
+  <si>
     <t>Annual number screened</t>
   </si>
   <si>
@@ -1621,39 +735,12 @@
   <si>
     <t>Background mortality rate</t>
   </si>
-  <si>
-    <t>m_rural</t>
-  </si>
-  <si>
-    <t>Rural males</t>
-  </si>
-  <si>
-    <t>f_rural</t>
-  </si>
-  <si>
-    <t>Rural females</t>
-  </si>
-  <si>
-    <t>m_urban</t>
-  </si>
-  <si>
-    <t>Urban males</t>
-  </si>
-  <si>
-    <t>f_urban</t>
-  </si>
-  <si>
-    <t>Urban females</t>
-  </si>
-  <si>
-    <t>Estimated number of new cases annually</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1675,25 +762,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1757,7 +825,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2889,12 +1957,12 @@
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2902,36 +1970,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2950,23 +2018,23 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="68.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
@@ -2982,17 +2050,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E2" s="2">
         <f>194572*0.5</f>
@@ -3002,17 +2070,17 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2">
         <f>194572*0.5</f>
@@ -3022,17 +2090,17 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2">
         <f>669021*0.5-0.5</f>
@@ -3043,17 +2111,17 @@
       <c r="H4" s="2"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2">
         <f>669021*0.5+0.5</f>
@@ -3063,15 +2131,15 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
@@ -3087,17 +2155,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
         <v>787</v>
@@ -3106,17 +2174,17 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <v>1101</v>
@@ -3125,17 +2193,17 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2">
         <v>859</v>
@@ -3144,17 +2212,17 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2">
         <v>1349</v>
@@ -3163,15 +2231,15 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
@@ -3187,17 +2255,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2">
         <v>214</v>
@@ -3206,17 +2274,17 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2">
         <v>483</v>
@@ -3225,17 +2293,17 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>507</v>
@@ -3244,17 +2312,17 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E17" s="2">
         <v>1073</v>
@@ -3263,15 +2331,15 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
@@ -3287,17 +2355,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E20" s="2">
         <v>172</v>
@@ -3306,17 +2374,17 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E21" s="2">
         <v>482</v>
@@ -3325,17 +2393,17 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2">
         <v>295</v>
@@ -3344,17 +2412,17 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E23" s="2">
         <v>759</v>
@@ -3363,15 +2431,15 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1">
@@ -3387,17 +2455,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E26" s="2">
         <v>127</v>
@@ -3406,17 +2474,17 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2">
         <v>382</v>
@@ -3425,17 +2493,17 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E28" s="2">
         <v>180</v>
@@ -3444,17 +2512,17 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2">
         <v>500</v>
@@ -3463,15 +2531,15 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
@@ -3487,17 +2555,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E32" s="2">
         <v>41</v>
@@ -3506,17 +2574,17 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E33" s="2">
         <v>148</v>
@@ -3525,17 +2593,17 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2">
         <v>50</v>
@@ -3544,17 +2612,17 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E35" s="2">
         <v>201</v>
@@ -3563,15 +2631,15 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1">
@@ -3587,17 +2655,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E38" s="2">
         <f>ROUND((41/1000*E3)/2,0)</f>
@@ -3607,17 +2675,17 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E39" s="2">
         <f>ROUND((41/1000*E3)/2,0)</f>
@@ -3627,17 +2695,17 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E40" s="2">
         <f>ROUND((41/1000*E5)/2,0)</f>
@@ -3647,17 +2715,17 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E41" s="2">
         <f>ROUND((41/1000*E5)/2,0)</f>
@@ -3667,15 +2735,15 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
@@ -3691,17 +2759,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E44" s="2">
         <v>30</v>
@@ -3710,17 +2778,17 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E45" s="2">
         <v>20</v>
@@ -3729,17 +2797,17 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E46" s="2">
         <v>30</v>
@@ -3748,17 +2816,17 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E47" s="2">
         <v>20</v>
@@ -3767,15 +2835,15 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
@@ -3791,17 +2859,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E50" s="2">
         <f>ROUND((E44*0.8)/((E8-E14)/(E2-E14)),0)</f>
@@ -3811,17 +2879,17 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E51" s="2">
         <f>ROUND((E45*0.8)/((E9-E15)/(E3-E15)),0)</f>
@@ -3831,17 +2899,17 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E52" s="2">
         <f>ROUND((E46*0.8)/((E10-E16)/(E4-E16)),0)</f>
@@ -3851,17 +2919,17 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E53" s="2">
         <f>ROUND((E47*0.8)/((E11-E17)/(E5-E17)),0)</f>
@@ -3871,15 +2939,15 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1">
@@ -3895,17 +2963,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E56" s="2">
         <v>15</v>
@@ -3914,17 +2982,17 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E57" s="2">
         <v>13</v>
@@ -3933,17 +3001,17 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E58" s="2">
         <v>30</v>
@@ -3952,17 +3020,17 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E59" s="2">
         <v>20</v>
@@ -3971,15 +3039,15 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1">
@@ -3995,17 +3063,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E62" s="2">
         <v>11</v>
@@ -4014,17 +3082,17 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E63" s="2">
         <v>9</v>
@@ -4033,17 +3101,17 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E64" s="2">
         <v>21</v>
@@ -4052,17 +3120,17 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E65" s="2">
         <v>14</v>
@@ -4071,15 +3139,15 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1">
@@ -4095,17 +3163,17 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E68" s="2">
         <v>0.1</v>
@@ -4114,17 +3182,17 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E69" s="2">
         <v>0.1</v>
@@ -4133,17 +3201,17 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B70" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E70" s="2">
         <v>0.1</v>
@@ -4152,17 +3220,17 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E71" s="2">
         <v>0.1</v>
@@ -4171,15 +3239,15 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1">
@@ -4195,91 +3263,91 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C74" s="4">
         <v>0.2</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C75" s="4">
         <v>0.2</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C76" s="4">
         <v>0.2</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C77" s="4">
         <v>0.2</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1">
@@ -4295,91 +3363,91 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B80" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C80" s="4">
         <v>0.16</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B81" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C81" s="4">
         <v>0.16</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B82" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C82" s="4">
         <v>0.16</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B83" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C83" s="4">
         <v>0.16</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1">
@@ -4395,91 +3463,91 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B86" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C86" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C87" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C88" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C89" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1">
@@ -4495,76 +3563,76 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B92" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C92" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B93" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C93" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C94" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C95" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -5085,13 +4153,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:B65 B56:B59 B50:B53 B44:B47 B38:B41 B32:B35 B26:B29 B20:B23 B14:B17 B8:B11 B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B62:B65 B56:B59 B50:B53 B44:B47 B38:B41 B32:B35 B26:B29 B20:B23 B14:B17 B8:B11 B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92:B95 B86:B89 B80:B83 B68:B71" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B92:B95 B86:B89 B80:B83 B68:B71" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Probability"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74:B77" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B74:B77" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Duration"</formula1>
     </dataValidation>
   </dataValidations>

--- a/atomica/library/hypertension_dyn_databook.xlsx
+++ b/atomica/library/hypertension_dyn_databook.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\atomica\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/atomica/library/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE5FB6-B54B-49D1-828D-04CDD41C597E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AF9F5AA-A094-FE4F-847D-CEBBFE42F952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9660" yWindow="465" windowWidth="19140" windowHeight="14415" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7060" yWindow="880" windowWidth="21740" windowHeight="14300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population Definitions" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -718,9 +724,6 @@
     <t>Loss-to-follow-up rate</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>Time after initiating treatment to achieve BP control (years)</t>
   </si>
   <si>
@@ -734,6 +737,9 @@
   </si>
   <si>
     <t>Background mortality rate</t>
+  </si>
+  <si>
+    <t>Rate (per year)</t>
   </si>
 </sst>
 </file>
@@ -843,9 +849,21 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -856,6 +874,30 @@
     <dxf>
       <fill>
         <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -908,14 +950,14 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
+        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp"/>
+        <patternFill patternType="lightUp">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -944,13 +986,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
@@ -971,611 +1006,6 @@
         <patternFill patternType="lightUp">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp"/>
       </fill>
     </dxf>
     <dxf>
@@ -1628,9 +1058,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1668,9 +1098,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1703,26 +1133,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1755,26 +1168,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1957,12 +1353,12 @@
       <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1970,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1978,7 +1374,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1986,7 +1382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1994,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -2014,19 +1410,19 @@
   </sheetPr>
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B68" activeCellId="3" sqref="B93:B95 B86:B89 B80:B83 B68:B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="68.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -2050,7 +1446,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2070,7 +1466,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2090,7 +1486,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2111,7 +1507,7 @@
       <c r="H4" s="2"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2131,7 +1527,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -2155,7 +1551,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2174,7 +1570,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2193,7 +1589,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2212,7 +1608,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2231,7 +1627,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2255,7 +1651,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2274,7 +1670,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2293,7 +1689,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2312,7 +1708,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2331,7 +1727,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -2355,7 +1751,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2374,7 +1770,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2393,7 +1789,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2412,7 +1808,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2431,7 +1827,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2455,7 +1851,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2474,7 +1870,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2493,7 +1889,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2512,7 +1908,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2531,7 +1927,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,7 +1951,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2574,7 +1970,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2593,7 +1989,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2612,7 +2008,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2631,7 +2027,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
@@ -2655,7 +2051,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2675,7 +2071,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2695,7 +2091,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2715,7 +2111,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2735,7 +2131,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>21</v>
       </c>
@@ -2759,7 +2155,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2778,7 +2174,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2797,7 +2193,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2816,7 +2212,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2835,7 +2231,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -2859,7 +2255,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2879,7 +2275,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -2899,7 +2295,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -2919,7 +2315,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -2939,7 +2335,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>23</v>
       </c>
@@ -2963,7 +2359,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -2982,7 +2378,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -3001,7 +2397,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -3020,7 +2416,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -3039,7 +2435,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
@@ -3063,7 +2459,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
@@ -3082,7 +2478,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
@@ -3101,7 +2497,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
@@ -3120,7 +2516,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
@@ -3139,7 +2535,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>25</v>
       </c>
@@ -3163,13 +2559,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3" t="s">
@@ -3182,13 +2578,13 @@
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B69" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3" t="s">
@@ -3201,13 +2597,13 @@
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3" t="s">
@@ -3220,13 +2616,13 @@
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B71" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="3" t="s">
@@ -3239,9 +2635,9 @@
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>11</v>
@@ -3263,13 +2659,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B74" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" s="4">
         <v>0.2</v>
@@ -3282,13 +2678,13 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" s="4">
         <v>0.2</v>
@@ -3301,13 +2697,13 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C76" s="4">
         <v>0.2</v>
@@ -3320,13 +2716,13 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C77" s="4">
         <v>0.2</v>
@@ -3339,9 +2735,9 @@
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>11</v>
@@ -3363,13 +2759,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B80" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C80" s="4">
         <v>0.16</v>
@@ -3382,13 +2778,13 @@
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B81" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C81" s="4">
         <v>0.16</v>
@@ -3401,13 +2797,13 @@
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C82" s="4">
         <v>0.16</v>
@@ -3420,13 +2816,13 @@
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B83" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C83" s="4">
         <v>0.16</v>
@@ -3439,9 +2835,9 @@
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>11</v>
@@ -3463,13 +2859,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C86" s="4">
         <v>2.5000000000000001E-2</v>
@@ -3482,13 +2878,13 @@
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C87" s="4">
         <v>2.5000000000000001E-2</v>
@@ -3501,13 +2897,13 @@
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C88" s="4">
         <v>2.5000000000000001E-2</v>
@@ -3520,13 +2916,13 @@
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C89" s="4">
         <v>2.5000000000000001E-2</v>
@@ -3539,9 +2935,9 @@
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>11</v>
@@ -3563,13 +2959,13 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="str">
         <f>'Population Definitions'!$A$2</f>
         <v>m_rural</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C92" s="4">
         <v>1.4999999999999999E-2</v>
@@ -3582,13 +2978,13 @@
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="str">
         <f>'Population Definitions'!$A$3</f>
         <v>f_rural</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C93" s="4">
         <v>1.4999999999999999E-2</v>
@@ -3601,13 +2997,13 @@
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="str">
         <f>'Population Definitions'!$A$4</f>
         <v>m_urban</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C94" s="4">
         <v>1.4999999999999999E-2</v>
@@ -3620,13 +3016,13 @@
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
         <f>'Population Definitions'!$A$5</f>
         <v>f_urban</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C95" s="4">
         <v>1.4999999999999999E-2</v>
@@ -3640,527 +3036,143 @@
       <c r="H95" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="expression" dxfId="127" priority="13">
-      <formula>COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="expression" dxfId="31" priority="1">
+      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="14">
-      <formula>AND(COUNTIF(E10:H10,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C10)))</formula>
+    <cfRule type="expression" dxfId="30" priority="2">
+      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="expression" dxfId="125" priority="15">
-      <formula>COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C8:C11">
+    <cfRule type="expression" dxfId="29" priority="9">
+      <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="16">
-      <formula>AND(COUNTIF(E11:H11,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C11)))</formula>
+    <cfRule type="expression" dxfId="28" priority="10">
+      <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" dxfId="123" priority="17">
+  <conditionalFormatting sqref="C14:C17">
+    <cfRule type="expression" dxfId="27" priority="17">
       <formula>COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="18">
+    <cfRule type="expression" dxfId="26" priority="18">
       <formula>AND(COUNTIF(E14:H14,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="expression" dxfId="121" priority="19">
-      <formula>COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C20:C23">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="20">
-      <formula>AND(COUNTIF(E15:H15,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C15)))</formula>
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="expression" dxfId="119" priority="21">
-      <formula>COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C26:C29">
+    <cfRule type="expression" dxfId="23" priority="34">
+      <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="22">
-      <formula>AND(COUNTIF(E16:H16,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C16)))</formula>
+    <cfRule type="expression" dxfId="22" priority="33">
+      <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="expression" dxfId="117" priority="23">
-      <formula>COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="24">
-      <formula>AND(COUNTIF(E17:H17,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="expression" dxfId="115" priority="1">
-      <formula>COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="114" priority="2">
-      <formula>AND(COUNTIF(E2:H2,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="113" priority="25">
-      <formula>COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="26">
-      <formula>AND(COUNTIF(E20:H20,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C20)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="111" priority="27">
-      <formula>COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="28">
-      <formula>AND(COUNTIF(E21:H21,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C21)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="expression" dxfId="109" priority="29">
-      <formula>COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="30">
-      <formula>AND(COUNTIF(E22:H22,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="expression" dxfId="107" priority="31">
-      <formula>COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="32">
-      <formula>AND(COUNTIF(E23:H23,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C23)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="105" priority="33">
-      <formula>COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="104" priority="34">
-      <formula>AND(COUNTIF(E26:H26,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="expression" dxfId="103" priority="35">
-      <formula>COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="36">
-      <formula>AND(COUNTIF(E27:H27,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C27)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="101" priority="37">
-      <formula>COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="38">
-      <formula>AND(COUNTIF(E28:H28,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="expression" dxfId="99" priority="39">
-      <formula>COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="40">
-      <formula>AND(COUNTIF(E29:H29,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="97" priority="3">
-      <formula>COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="96" priority="4">
-      <formula>AND(COUNTIF(E3:H3,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="expression" dxfId="95" priority="41">
+  <conditionalFormatting sqref="C32:C35">
+    <cfRule type="expression" dxfId="21" priority="41">
       <formula>COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="42">
+    <cfRule type="expression" dxfId="20" priority="42">
       <formula>AND(COUNTIF(E32:H32,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="expression" dxfId="93" priority="43">
-      <formula>COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="92" priority="44">
-      <formula>AND(COUNTIF(E33:H33,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C33)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="expression" dxfId="91" priority="45">
-      <formula>COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="90" priority="46">
-      <formula>AND(COUNTIF(E34:H34,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C34)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="89" priority="47">
-      <formula>COUNTIF(E35:H35,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="48">
-      <formula>AND(COUNTIF(E35:H35,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C35)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="expression" dxfId="87" priority="49">
+  <conditionalFormatting sqref="C38:C41">
+    <cfRule type="expression" dxfId="19" priority="49">
       <formula>COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="50">
+    <cfRule type="expression" dxfId="18" priority="50">
       <formula>AND(COUNTIF(E38:H38,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="expression" dxfId="85" priority="51">
-      <formula>COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C44:C47">
+    <cfRule type="expression" dxfId="17" priority="58">
+      <formula>AND(COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="52">
-      <formula>AND(COUNTIF(E39:H39,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C39)))</formula>
+    <cfRule type="expression" dxfId="16" priority="57">
+      <formula>COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="83" priority="5">
-      <formula>COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="6">
-      <formula>AND(COUNTIF(E4:H4,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="expression" dxfId="81" priority="53">
-      <formula>COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="80" priority="54">
-      <formula>AND(COUNTIF(E40:H40,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C40)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
-    <cfRule type="expression" dxfId="79" priority="55">
-      <formula>COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="78" priority="56">
-      <formula>AND(COUNTIF(E41:H41,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="expression" dxfId="77" priority="57">
-      <formula>COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="58">
-      <formula>AND(COUNTIF(E44:H44,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C44)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="expression" dxfId="75" priority="59">
-      <formula>COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="60">
-      <formula>AND(COUNTIF(E45:H45,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="73" priority="61">
-      <formula>COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="72" priority="62">
-      <formula>AND(COUNTIF(E46:H46,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C47">
-    <cfRule type="expression" dxfId="71" priority="63">
-      <formula>COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="64">
-      <formula>AND(COUNTIF(E47:H47,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C47)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="69" priority="7">
-      <formula>COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="68" priority="8">
-      <formula>AND(COUNTIF(E5:H5,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="expression" dxfId="67" priority="65">
+  <conditionalFormatting sqref="C50:C53">
+    <cfRule type="expression" dxfId="15" priority="65">
       <formula>COUNTIF(E50:H50,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="66">
+    <cfRule type="expression" dxfId="14" priority="66">
       <formula>AND(COUNTIF(E50:H50,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="expression" dxfId="65" priority="67">
-      <formula>COUNTIF(E51:H51,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="68">
-      <formula>AND(COUNTIF(E51:H51,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C51)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="expression" dxfId="63" priority="69">
-      <formula>COUNTIF(E52:H52,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="70">
-      <formula>AND(COUNTIF(E52:H52,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C52)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="expression" dxfId="61" priority="71">
-      <formula>COUNTIF(E53:H53,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="72">
-      <formula>AND(COUNTIF(E53:H53,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C53)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C56">
-    <cfRule type="expression" dxfId="59" priority="73">
+  <conditionalFormatting sqref="C56:C59">
+    <cfRule type="expression" dxfId="13" priority="73">
       <formula>COUNTIF(E56:H56,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="74">
+    <cfRule type="expression" dxfId="12" priority="74">
       <formula>AND(COUNTIF(E56:H56,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C56)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57">
-    <cfRule type="expression" dxfId="57" priority="75">
-      <formula>COUNTIF(E57:H57,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="76">
-      <formula>AND(COUNTIF(E57:H57,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C57)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="expression" dxfId="55" priority="77">
-      <formula>COUNTIF(E58:H58,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="78">
-      <formula>AND(COUNTIF(E58:H58,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C58)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C59">
-    <cfRule type="expression" dxfId="53" priority="79">
-      <formula>COUNTIF(E59:H59,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="80">
-      <formula>AND(COUNTIF(E59:H59,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C59)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C62">
-    <cfRule type="expression" dxfId="51" priority="81">
+  <conditionalFormatting sqref="C62:C65">
+    <cfRule type="expression" dxfId="11" priority="81">
       <formula>COUNTIF(E62:H62,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="82">
+    <cfRule type="expression" dxfId="10" priority="82">
       <formula>AND(COUNTIF(E62:H62,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="49" priority="83">
-      <formula>COUNTIF(E63:H63,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="84">
-      <formula>AND(COUNTIF(E63:H63,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C63)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
-    <cfRule type="expression" dxfId="47" priority="85">
-      <formula>COUNTIF(E64:H64,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="86">
-      <formula>AND(COUNTIF(E64:H64,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="expression" dxfId="45" priority="87">
-      <formula>COUNTIF(E65:H65,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="88">
-      <formula>AND(COUNTIF(E65:H65,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="expression" dxfId="43" priority="89">
+  <conditionalFormatting sqref="C68:C71">
+    <cfRule type="expression" dxfId="9" priority="89">
       <formula>COUNTIF(E68:H68,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="90">
+    <cfRule type="expression" dxfId="8" priority="90">
       <formula>AND(COUNTIF(E68:H68,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C68)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C69">
-    <cfRule type="expression" dxfId="41" priority="91">
-      <formula>COUNTIF(E69:H69,"&lt;&gt;" &amp; "")&gt;0</formula>
+  <conditionalFormatting sqref="C74:C77">
+    <cfRule type="expression" dxfId="7" priority="98">
+      <formula>AND(COUNTIF(E74:H74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C74)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="92">
-      <formula>AND(COUNTIF(E69:H69,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C69)))</formula>
+    <cfRule type="expression" dxfId="6" priority="97">
+      <formula>COUNTIF(E74:H74,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C70">
-    <cfRule type="expression" dxfId="39" priority="93">
-      <formula>COUNTIF(E70:H70,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="38" priority="94">
-      <formula>AND(COUNTIF(E70:H70,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C70)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="37" priority="95">
-      <formula>COUNTIF(E71:H71,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="96">
-      <formula>AND(COUNTIF(E71:H71,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="expression" dxfId="35" priority="97">
-      <formula>COUNTIF(E74:H74,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="98">
-      <formula>AND(COUNTIF(E74:H74,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C74)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C75">
-    <cfRule type="expression" dxfId="33" priority="99">
-      <formula>COUNTIF(E75:H75,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="100">
-      <formula>AND(COUNTIF(E75:H75,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C75)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="expression" dxfId="31" priority="101">
-      <formula>COUNTIF(E76:H76,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="102">
-      <formula>AND(COUNTIF(E76:H76,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C76)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="expression" dxfId="29" priority="103">
-      <formula>COUNTIF(E77:H77,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="104">
-      <formula>AND(COUNTIF(E77:H77,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="expression" dxfId="27" priority="9">
-      <formula>COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10">
-      <formula>AND(COUNTIF(E8:H8,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="expression" dxfId="25" priority="105">
+  <conditionalFormatting sqref="C80:C83">
+    <cfRule type="expression" dxfId="5" priority="105">
       <formula>COUNTIF(E80:H80,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="106">
+    <cfRule type="expression" dxfId="4" priority="106">
       <formula>AND(COUNTIF(E80:H80,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C80)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="expression" dxfId="23" priority="107">
-      <formula>COUNTIF(E81:H81,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="108">
-      <formula>AND(COUNTIF(E81:H81,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C81)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="expression" dxfId="21" priority="109">
-      <formula>COUNTIF(E82:H82,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="110">
-      <formula>AND(COUNTIF(E82:H82,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="expression" dxfId="19" priority="111">
-      <formula>COUNTIF(E83:H83,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="112">
-      <formula>AND(COUNTIF(E83:H83,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C86">
-    <cfRule type="expression" dxfId="17" priority="113">
+  <conditionalFormatting sqref="C86:C89">
+    <cfRule type="expression" dxfId="3" priority="113">
       <formula>COUNTIF(E86:H86,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="114">
+    <cfRule type="expression" dxfId="2" priority="114">
       <formula>AND(COUNTIF(E86:H86,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C86)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C87">
-    <cfRule type="expression" dxfId="15" priority="115">
-      <formula>COUNTIF(E87:H87,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="116">
-      <formula>AND(COUNTIF(E87:H87,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C87)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="expression" dxfId="13" priority="117">
-      <formula>COUNTIF(E88:H88,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="118">
-      <formula>AND(COUNTIF(E88:H88,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="expression" dxfId="11" priority="119">
-      <formula>COUNTIF(E89:H89,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="120">
-      <formula>AND(COUNTIF(E89:H89,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C89)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="9" priority="11">
-      <formula>COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
-      <formula>AND(COUNTIF(E9:H9,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C9)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="expression" dxfId="7" priority="121">
-      <formula>COUNTIF(E92:H92,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="122">
+  <conditionalFormatting sqref="C92:C95">
+    <cfRule type="expression" dxfId="1" priority="122">
       <formula>AND(COUNTIF(E92:H92,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C92)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C93">
-    <cfRule type="expression" dxfId="5" priority="123">
-      <formula>COUNTIF(E93:H93,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="124">
-      <formula>AND(COUNTIF(E93:H93,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C93)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="expression" dxfId="3" priority="125">
-      <formula>COUNTIF(E94:H94,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="126">
-      <formula>AND(COUNTIF(E94:H94,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="expression" dxfId="1" priority="127">
-      <formula>COUNTIF(E95:H95,"&lt;&gt;" &amp; "")&gt;0</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="128">
-      <formula>AND(COUNTIF(E95:H95,"&lt;&gt;" &amp; "")&gt;0,NOT(ISBLANK(C95)))</formula>
+    <cfRule type="expression" dxfId="0" priority="121">
+      <formula>COUNTIF(E92:H92,"&lt;&gt;" &amp; "")&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B62:B65 B56:B59 B50:B53 B44:B47 B38:B41 B32:B35 B26:B29 B20:B23 B14:B17 B8:B11 B2:B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Number"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B92:B95 B86:B89 B80:B83 B68:B71" xr:uid="{00000000-0002-0000-0100-000001000000}">
-      <formula1>"Probability"</formula1>
-    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B74:B77" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"Duration"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B80:B83 B86:B89 B92:B95 B68:B71" xr:uid="{89F4A58D-06E9-864E-8BE3-E54130B46C18}">
+      <formula1>"Rate (per year)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
